--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R5d546856aa8d47de"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Ree7cf5ab29a749ba"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -91,6 +91,8 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:title>
     <c:plotArea>
       <c:layout/>
@@ -137,6 +139,8 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
+      <c:overlay val="0"/>
     </c:legend>
   </c:chart>
 </c:chartSpace>
@@ -168,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7cc15fbfd2364888"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb4db95564c0d4cae"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -258,6 +262,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2712f2e1132f4256"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0eea226014ab4711"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Ree7cf5ab29a749ba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R50a188a081db4948"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rb4db95564c0d4cae"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15638674196a4482"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -262,6 +262,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0eea226014ab4711"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc3823e40737c4b94"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R50a188a081db4948"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R786940db15364e26"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R15638674196a4482"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2b53d46653454466"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -262,6 +262,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc3823e40737c4b94"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R44f7465434bb4e1f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R786940db15364e26"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R30dfb0487b234ad9"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2b53d46653454466"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R87631ef8c4bd4611"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -262,6 +262,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R44f7465434bb4e1f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R528264d03532452b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R30dfb0487b234ad9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R873bc57f04a5476d"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R87631ef8c4bd4611"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra1052df4a4ef4660"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -262,6 +262,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R528264d03532452b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra30c0e72b52e471c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R873bc57f04a5476d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R1658a6ba96274a2b"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra1052df4a4ef4660"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7c43abd3709643da"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -262,6 +262,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ra30c0e72b52e471c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8898d863f6234e1b"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R1658a6ba96274a2b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rdbcf6791f19f4eba"/>
   </x:sheets>
 </x:workbook>
 </file>
@@ -172,7 +172,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R7c43abd3709643da"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R30c6eafacdef40d5"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -262,6 +262,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R8898d863f6234e1b"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf9e6faccca0b4dd8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,8 +5,9 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rdbcf6791f19f4eba"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R9364159ff3a1416f"/>
   </x:sheets>
+  <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
 </file>
 
@@ -172,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R30c6eafacdef40d5"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbbc0f743cff347be"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -262,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rf9e6faccca0b4dd8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ree1be46472564871"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R9364159ff3a1416f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R762be0820cc1477d"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rbbc0f743cff347be"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Radca28482ebb41b9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Ree1be46472564871"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfdbfbda777dd4122"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R762be0820cc1477d"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Re2275e4d9e804641"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Radca28482ebb41b9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re5f59662964b4935"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfdbfbda777dd4122"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R65fbc19afaf94895"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Re2275e4d9e804641"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rebcbc4b5e8874f86"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re5f59662964b4935"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc10b199f20694445"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R65fbc19afaf94895"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1ef2f6a9b00b4bdf"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rebcbc4b5e8874f86"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rb9df433ace9144af"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc10b199f20694445"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R715a318193a147a6"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R1ef2f6a9b00b4bdf"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7c4604db95ec4a22"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rb9df433ace9144af"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R0c3285585e9c4faa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R715a318193a147a6"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfea9f6febb254af9"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R7c4604db95ec4a22"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05f416bd8c514e84"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R0c3285585e9c4faa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rfa841f82f57247b4"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rfea9f6febb254af9"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R67fab2246d93486f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R05f416bd8c514e84"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb8495743b8e5402f"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rfa841f82f57247b4"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R31dd6feb48aa43fa"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R67fab2246d93486f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re9fa66e40cfb4537"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rb8495743b8e5402f"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R424bcf0111d64da3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R31dd6feb48aa43fa"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R9a9f6d58801245c6"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re9fa66e40cfb4537"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0a17def0d522437a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R424bcf0111d64da3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfdf9ce0b26cd4f30"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R9a9f6d58801245c6"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rd172dfeb0ed7487b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0a17def0d522437a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R36ef10a158f54f9b"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rfdf9ce0b26cd4f30"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4df9ce18c55d41cc"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rd172dfeb0ed7487b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R61e8e50409344ead"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R36ef10a158f54f9b"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5cf7bc9bb90e449f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R4df9ce18c55d41cc"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3b4b08f8a2574f52"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R61e8e50409344ead"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rdc08d35ff3d4427e"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5cf7bc9bb90e449f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a80f4ef90c94d87"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R3b4b08f8a2574f52"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0aff4c72060143e2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rdc08d35ff3d4427e"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R08cfbe75e1904ec9"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R2a80f4ef90c94d87"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re726cb10530c4950"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R0aff4c72060143e2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2fe160cada2840d9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R08cfbe75e1904ec9"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R28128bed46744a57"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Re726cb10530c4950"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcacb4c2121d0426f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2fe160cada2840d9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R70a2e72859ef4af6"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R28128bed46744a57"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Re60e64826abc4f32"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rcacb4c2121d0426f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rec67bd4e68d84e00"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R70a2e72859ef4af6"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R92eace73b4bb4398"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Re60e64826abc4f32"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Re95cfb708a05475b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rec67bd4e68d84e00"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R345bb8cf0d534d52"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R92eace73b4bb4398"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd67ac0b85ca04ef3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Re95cfb708a05475b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R8befbca419f54e62"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R345bb8cf0d534d52"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R293d260aa34a4eb7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rd67ac0b85ca04ef3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R07b7092593e642f8"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R8befbca419f54e62"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rdd4e66ad31e14f3f"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R293d260aa34a4eb7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc399f065e8aa4377"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R07b7092593e642f8"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc0aeda34f36d45e9"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rdd4e66ad31e14f3f"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R319f76a717b84a39"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rc399f065e8aa4377"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9faea59d6ec3464c"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="Rc0aeda34f36d45e9"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2d955adbdf764b08"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R319f76a717b84a39"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R8b6819ffcb964879"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R9faea59d6ec3464c"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ed0ed79f4c8407f"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2d955adbdf764b08"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2bc85a45e4b947f7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R8b6819ffcb964879"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R2bbbde02b0ee4715"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -173,7 +173,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R5ed0ed79f4c8407f"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra488d967b05749e7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +263,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R2bc85a45e4b947f7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9fd2cec9f39b44eb"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R2bbbde02b0ee4715"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rbe6b720ab6064318"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -103,6 +103,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Series 1</c:v>
+          </c:tx>
           <c:cat>
             <c:strRef>
               <c:f>'Monthly Sales'!$A$2:$A$7</c:f>
@@ -173,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra488d967b05749e7"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra678e2e954324032"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -263,6 +266,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9fd2cec9f39b44eb"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R29cc170093b4401e"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rbe6b720ab6064318"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Ra38fed3a379a479b"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -176,7 +176,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Ra678e2e954324032"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R22a5430986454260"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -266,6 +266,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R29cc170093b4401e"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5f92536621344ba0"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Ra38fed3a379a479b"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rc2dc237510174fe1"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -106,6 +106,10 @@
           <c:tx>
             <c:v>Series 1</c:v>
           </c:tx>
+          <c:marker>
+            <c:symbol val="circle"/>
+            <c:size val="5"/>
+          </c:marker>
           <c:cat>
             <c:strRef>
               <c:f>'Monthly Sales'!$A$2:$A$7</c:f>
@@ -176,7 +180,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R22a5430986454260"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R35d4aec4dc944c7a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -266,6 +270,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R5f92536621344ba0"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R41e11891daac4eb3"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rc2dc237510174fe1"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R6abd98c1ca234d13"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -180,7 +180,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R35d4aec4dc944c7a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf7149c4fac0d449a"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -270,6 +270,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R41e11891daac4eb3"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R151252dc0e644e1c"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R6abd98c1ca234d13"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R8ca42c0658224615"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -180,7 +180,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rf7149c4fac0d449a"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0767cc6be4414744"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -270,6 +270,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R151252dc0e644e1c"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9ec0dfc9cf3b46b7"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R8ca42c0658224615"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rd887e1194bd84fb3"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -180,7 +180,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R0767cc6be4414744"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd657c376ed184f95"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -270,6 +270,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R9ec0dfc9cf3b46b7"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R747a2f32af2c41a2"/>
 </x:worksheet>
 </file>
--- a/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
+++ b/FRJ.Tools.SimpleWorkSheet.Examples/Output/42_LineChart.xlsx
@@ -5,7 +5,7 @@
     <x:workbookView/>
   </x:bookViews>
   <x:sheets>
-    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="Rd887e1194bd84fb3"/>
+    <x:sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Sales" sheetId="1" r:id="R7df7172e28404ef8"/>
   </x:sheets>
   <x:calcPr fullCalcOnLoad="1"/>
 </x:workbook>
@@ -121,6 +121,14 @@
             </c:numRef>
           </c:val>
         </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
         <c:axId val="1"/>
         <c:axId val="2"/>
       </c:lineChart>
@@ -180,7 +188,7 @@
       </xdr:xfrm>
       <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="Rd657c376ed184f95"/>
+          <c:chart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" r:id="R48ec79bdf8394504"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -270,6 +278,6 @@
       </x:c>
     </x:row>
   </x:sheetData>
-  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R747a2f32af2c41a2"/>
+  <x:drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="R39153d56d6e545bb"/>
 </x:worksheet>
 </file>